--- a/BackTest/2020-01-13 BackTest EOS.xlsx
+++ b/BackTest/2020-01-13 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>32943.63369820999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>32103.05299820999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>42605.20945795</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>60982.52565794999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>62277.89019562</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>66827.10219749001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>68217.28789749001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>67154.23989749001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>59616.94790690004</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>61352.34125401003</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>60729.80505401003</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>65167.00865401002</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>65150.94865401003</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>65449.79255401003</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>72825.88495401003</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>72179.59845401003</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>72341.88935401004</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>72499.39315401005</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>71130.06815401005</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>71066.06915401005</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>70983.03015401005</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>70993.38015401005</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>71087.03695401005</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>71086.03695401005</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>71086.03695401005</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>79701.86395401006</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>80851.59175401005</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>82048.25775401005</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>79441.04575401005</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>71299.53275401004</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>70959.64175401004</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>68304.09515401004</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>69101.31555401004</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>69101.31555401004</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>69181.22965401004</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>70217.75655401003</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>71804.23215401002</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>71804.23215401002</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>71804.23215401002</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>71804.23215401002</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>77695.35905401003</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>78323.76215401002</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>78104.57545401002</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>78103.42045401002</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>78103.42045401002</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>78103.42045401002</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>78103.42045401002</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>78103.42045401002</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>77950.26695401002</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>77975.50155401001</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>76964.50705401001</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>76964.50705401001</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>80214.04765401001</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>80214.04765401001</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>80929.12935401</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>80885.73365401001</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>81600.06305401001</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>104739.35655401</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>105596.76465401</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>106258.86365401</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>101904.73455401</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>102699.01725401</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>99518.62995401</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>99518.62995401</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>99710.50525401</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>94287.22135401001</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>93406.60575401</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>93406.60575401</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>93406.60575401</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>92647.84855401001</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>90653.99135401001</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>41737.25625400998</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>50673.10105400998</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>50032.31145400999</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>46646.02085400998</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -11803,14 +11803,10 @@
         <v>16974.25953714998</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>3415</v>
-      </c>
-      <c r="J346" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
@@ -11840,19 +11836,11 @@
         <v>22339.24303714999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>3415</v>
-      </c>
-      <c r="J347" t="n">
-        <v>3415</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11884,14 +11872,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3415</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11953,17 +11935,11 @@
         <v>22316.11583714999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11996,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12033,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12070,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12107,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12144,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12181,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12218,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12255,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12292,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12329,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12366,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12403,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12440,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12477,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12514,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12551,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12588,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12625,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12658,17 +12562,11 @@
         <v>-6065.919662850011</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>3397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12697,17 +12595,11 @@
         <v>-5727.940262850011</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>3388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12736,17 +12628,11 @@
         <v>-25403.45306285001</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>3390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12779,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12816,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12853,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12890,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12927,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12964,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13001,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13038,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13075,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13112,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13149,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13186,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13223,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13260,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13293,17 +13123,11 @@
         <v>-69720.24626285002</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>3357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13332,17 +13156,11 @@
         <v>-69720.24626285002</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>3357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13371,17 +13189,11 @@
         <v>-80622.05506285002</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>3357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13410,17 +13222,11 @@
         <v>-82323.92146285002</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>3354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13449,17 +13255,11 @@
         <v>-104848.39286285</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>3343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13488,17 +13288,11 @@
         <v>-118350.28906285</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>3337</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13527,7 +13321,7 @@
         <v>-97003.92566285002</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>3325</v>
@@ -13535,7 +13329,7 @@
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L392" t="n">
@@ -13566,7 +13360,7 @@
         <v>-101051.92226285</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>3341</v>
@@ -13605,7 +13399,7 @@
         <v>-100424.83146285</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>3338</v>
@@ -13644,7 +13438,7 @@
         <v>-101481.60808578</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>3356</v>
@@ -13683,7 +13477,7 @@
         <v>-101648.33538578</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>3354</v>
@@ -13722,7 +13516,7 @@
         <v>-101648.33538578</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>3353</v>
@@ -13761,7 +13555,7 @@
         <v>-98064.82360871001</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>3353</v>
@@ -13800,7 +13594,7 @@
         <v>-96475.81250871001</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>3368</v>
@@ -13839,7 +13633,7 @@
         <v>-98037.79627295</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>3370</v>
@@ -13878,7 +13672,7 @@
         <v>-98037.79627295</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>3369</v>
@@ -13917,7 +13711,7 @@
         <v>-96659.63057295</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>3369</v>
@@ -13956,7 +13750,7 @@
         <v>-98060.23827295</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>3370</v>
@@ -13995,7 +13789,7 @@
         <v>-98060.23827295</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>3369</v>
@@ -14034,11 +13828,9 @@
         <v>-98060.23827295</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>3369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14073,7 +13865,7 @@
         <v>-98767.47797295</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>3369</v>
@@ -14112,7 +13904,7 @@
         <v>-98444.79017295</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>3368</v>
@@ -14151,7 +13943,7 @@
         <v>-98444.79017295</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>3378</v>
@@ -14190,11 +13982,9 @@
         <v>-100575.44877295</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>3378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14229,11 +14019,9 @@
         <v>-98265.79587295</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>3377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14268,7 +14056,7 @@
         <v>-97885.74737294999</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>3381</v>
@@ -14307,11 +14095,9 @@
         <v>-99813.29897295</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>3384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14346,7 +14132,7 @@
         <v>-99813.29897295</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>3382</v>
@@ -14385,11 +14171,9 @@
         <v>-100341.43547295</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>3382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14424,7 +14208,7 @@
         <v>-100424.10697295</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>3380</v>
@@ -14463,11 +14247,9 @@
         <v>-102305.74847295</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>3377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14502,11 +14284,9 @@
         <v>-99519.65677294998</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>3373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14541,7 +14321,7 @@
         <v>-99381.88197294998</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>3378</v>
@@ -14580,11 +14360,9 @@
         <v>-97676.85377294998</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>3382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14619,7 +14397,7 @@
         <v>-93758.64737294998</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>3387</v>
@@ -14658,11 +14436,9 @@
         <v>-93758.64737294998</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>3389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14697,11 +14473,9 @@
         <v>-93758.64737294998</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>3389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14736,11 +14510,9 @@
         <v>-86053.27107294998</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>3389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14775,11 +14547,9 @@
         <v>-84779.74637294999</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -15036,11 +14806,9 @@
         <v>-97367.62637294998</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -15075,11 +14843,9 @@
         <v>-97367.62637294998</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15114,11 +14880,9 @@
         <v>-95774.67897294997</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15153,7 +14917,7 @@
         <v>-96276.03047294998</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>3402</v>
@@ -15192,7 +14956,7 @@
         <v>-96262.25907294998</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>3399</v>
@@ -15231,7 +14995,7 @@
         <v>-96681.04137294999</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>3400</v>
@@ -15270,7 +15034,7 @@
         <v>-97687.51137294999</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>3399</v>
@@ -15309,7 +15073,7 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>3396</v>
@@ -15348,7 +15112,7 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>3393</v>
@@ -15387,7 +15151,7 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>3393</v>
@@ -15426,7 +15190,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>3393</v>
@@ -15465,7 +15229,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>3401</v>
@@ -15504,7 +15268,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>3401</v>
@@ -15543,7 +15307,7 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>3401</v>
@@ -15582,7 +15346,7 @@
         <v>-106965.22757295</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>3401</v>
@@ -15621,7 +15385,7 @@
         <v>-106940.77027295</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>3397</v>
@@ -15660,7 +15424,7 @@
         <v>-110333.35637295</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>3399</v>
@@ -15699,7 +15463,7 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>3394</v>
@@ -15738,7 +15502,7 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>3390</v>
@@ -15777,7 +15541,7 @@
         <v>-124664.61347295</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>3390</v>
@@ -15816,7 +15580,7 @@
         <v>-123632.68487295</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>3391</v>
@@ -15855,7 +15619,7 @@
         <v>-122032.36197295</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>3400</v>
@@ -15894,7 +15658,7 @@
         <v>-122032.36197295</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>3403</v>
@@ -15933,7 +15697,7 @@
         <v>-112555.66567295</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>3403</v>
@@ -15972,7 +15736,7 @@
         <v>-109425.85047295</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>3405</v>
@@ -16011,7 +15775,7 @@
         <v>-110895.09819032</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>3410</v>
@@ -16050,7 +15814,7 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>3408</v>
@@ -16089,7 +15853,7 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>3407</v>
@@ -16128,7 +15892,7 @@
         <v>-113141.55769032</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>3407</v>
@@ -16167,7 +15931,7 @@
         <v>-108152.12331527</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>3403</v>
@@ -16206,11 +15970,9 @@
         <v>-102257.39866579</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>3404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16245,11 +16007,9 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>3405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16284,11 +16044,9 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>3404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16323,11 +16081,9 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>3404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16362,7 +16118,7 @@
         <v>-102565.18066579</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>3404</v>
@@ -16401,11 +16157,9 @@
         <v>-112270.49876579</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>3401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16440,7 +16194,7 @@
         <v>-112270.49876579</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>3399</v>
@@ -16479,7 +16233,7 @@
         <v>-112137.02636579</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>3399</v>
@@ -16518,11 +16272,9 @@
         <v>-111984.96196579</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16557,7 +16309,7 @@
         <v>-110276.59436579</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>3402</v>
@@ -16596,11 +16348,9 @@
         <v>-110292.34436579</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16635,7 +16385,7 @@
         <v>-110292.34436579</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>3401</v>
@@ -16674,7 +16424,7 @@
         <v>-110799.68836579</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>3401</v>
@@ -16713,7 +16463,7 @@
         <v>-109632.12456579</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>3396</v>
@@ -16752,7 +16502,7 @@
         <v>-89264.42936579</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>3402</v>
@@ -16791,11 +16541,9 @@
         <v>-89233.47806579</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>3404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16830,11 +16578,9 @@
         <v>-89233.47806579</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>3405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16869,11 +16615,9 @@
         <v>-91046.36756579</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>3405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16908,11 +16652,9 @@
         <v>-91046.36756579</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>3402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16947,11 +16689,9 @@
         <v>-95209.86506579</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>3402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16986,11 +16726,9 @@
         <v>-95209.86506579</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>3397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -17025,11 +16763,9 @@
         <v>-102923.50626579</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>3397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -17064,11 +16800,9 @@
         <v>-108970.40626579</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="n">
-        <v>3392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -17103,11 +16837,9 @@
         <v>-108970.40626579</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="n">
-        <v>3388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -17142,11 +16874,9 @@
         <v>-111011.95586579</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="n">
-        <v>3388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -17181,7 +16911,7 @@
         <v>-108622.80886579</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>3384</v>
@@ -17220,7 +16950,7 @@
         <v>-115236.74126579</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>3387</v>
@@ -17259,11 +16989,9 @@
         <v>-112022.06046579</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
-      </c>
-      <c r="I488" t="n">
-        <v>3386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -17298,7 +17026,7 @@
         <v>-114580.48086579</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>3392</v>
@@ -17337,11 +17065,9 @@
         <v>-113109.74836579</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>3390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -17376,7 +17102,7 @@
         <v>-113109.49256579</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>3398</v>
@@ -17415,11 +17141,9 @@
         <v>-112609.49256579</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="n">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -17454,11 +17178,9 @@
         <v>-106561.06586579</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>3402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -17493,11 +17215,9 @@
         <v>-109229.74196579</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>3404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17532,11 +17252,9 @@
         <v>-109229.74196579</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17608,11 +17326,9 @@
         <v>-109098.79846579</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17647,11 +17363,9 @@
         <v>-109127.16846579</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>3402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17686,11 +17400,9 @@
         <v>-109053.88666579</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17725,11 +17437,9 @@
         <v>-109053.88666579</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17764,11 +17474,9 @@
         <v>-110203.41216579</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17803,11 +17511,9 @@
         <v>-109683.00056579</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17842,11 +17548,9 @@
         <v>-110183.99056579</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>3401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17881,11 +17585,9 @@
         <v>-110183.99056579</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17920,11 +17622,9 @@
         <v>-107618.92016579</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17959,7 +17659,7 @@
         <v>-109050.11116579</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>3404</v>
@@ -17998,7 +17698,7 @@
         <v>-106654.55026579</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>3400</v>
@@ -18037,11 +17737,9 @@
         <v>-102958.53086579</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="n">
-        <v>3409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -18076,11 +17774,9 @@
         <v>-103006.31196579</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -18115,11 +17811,9 @@
         <v>-102353.15006579</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="n">
-        <v>3409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -18154,11 +17848,9 @@
         <v>-101884.05006579</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -18193,11 +17885,9 @@
         <v>-101908.85006579</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -18232,11 +17922,9 @@
         <v>-101908.85006579</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>3413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -18271,11 +17959,9 @@
         <v>-99211.43756578999</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="n">
-        <v>3413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -18310,11 +17996,9 @@
         <v>-97422.44536579</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -18349,11 +18033,9 @@
         <v>-96906.76196579001</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
-      </c>
-      <c r="I516" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -18388,11 +18070,9 @@
         <v>-96906.76196579001</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -18427,11 +18107,9 @@
         <v>-95671.54196579001</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
-      </c>
-      <c r="I518" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -18466,11 +18144,9 @@
         <v>-96314.56336579</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>3433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18505,11 +18181,9 @@
         <v>-94151.49076579</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>3431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18544,11 +18218,9 @@
         <v>-93866.78686579001</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>3432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18583,11 +18255,9 @@
         <v>-99260.14476579001</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>3433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18622,11 +18292,9 @@
         <v>-99234.93706579001</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="n">
-        <v>3430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18661,11 +18329,9 @@
         <v>-99492.68916579001</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>3432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18700,11 +18366,9 @@
         <v>-97825.17756579001</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18739,11 +18403,9 @@
         <v>-99137.48406579002</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
-      </c>
-      <c r="I526" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18778,11 +18440,9 @@
         <v>-99137.48406579002</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18817,11 +18477,9 @@
         <v>-98835.51326579002</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18856,11 +18514,9 @@
         <v>-95888.49956579003</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18895,11 +18551,9 @@
         <v>-95888.49956579003</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
-      </c>
-      <c r="I530" t="n">
-        <v>3430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18934,11 +18588,9 @@
         <v>-96035.35376579003</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="n">
-        <v>3430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18973,11 +18625,9 @@
         <v>-97146.07326579004</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="n">
-        <v>3428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -19012,11 +18662,9 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -19051,7 +18699,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>3418</v>
@@ -19090,7 +18738,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>3418</v>
@@ -19129,7 +18777,7 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>3418</v>
@@ -19168,7 +18816,7 @@
         <v>-99299.42836579004</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>3418</v>
@@ -19207,7 +18855,7 @@
         <v>-99299.42836579004</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>3415</v>
@@ -19246,7 +18894,7 @@
         <v>-89272.26776579003</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>3415</v>
@@ -19285,7 +18933,7 @@
         <v>-88713.57476579004</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>3416</v>
@@ -19324,7 +18972,7 @@
         <v>-88125.43646579003</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>3425</v>
@@ -19363,11 +19011,9 @@
         <v>-88719.15096579003</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>3431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -19402,11 +19048,9 @@
         <v>-83213.21556579003</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="n">
-        <v>3429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -19441,11 +19085,9 @@
         <v>-83213.21556579003</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>3434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -19480,11 +19122,9 @@
         <v>-78403.32436579003</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>3434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -19519,11 +19159,9 @@
         <v>-78608.31836579004</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>3436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -19558,11 +19196,9 @@
         <v>-79471.58936579003</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>3430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19597,11 +19233,9 @@
         <v>-81271.19566579003</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>3429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -19636,11 +19270,9 @@
         <v>-82027.52396579002</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>3426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -19675,11 +19307,9 @@
         <v>-82017.29071442003</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -19714,11 +19344,9 @@
         <v>-82017.29071442003</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19753,11 +19381,9 @@
         <v>-82096.04261442003</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19792,11 +19418,9 @@
         <v>-81298.79141442003</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19831,11 +19455,9 @@
         <v>-81061.57361442003</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19870,11 +19492,9 @@
         <v>-80790.78461442003</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19909,11 +19529,9 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="n">
-        <v>3426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19948,11 +19566,9 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19987,7 +19603,7 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>3415</v>
@@ -20026,11 +19642,9 @@
         <v>-87212.56961442003</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -20065,11 +19679,9 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -20104,11 +19716,9 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>3411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -20143,11 +19753,9 @@
         <v>-87798.70531442003</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>3411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -20182,11 +19790,9 @@
         <v>-87774.63761442003</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>3409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -20221,11 +19827,9 @@
         <v>-87944.34761442004</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -20260,11 +19864,9 @@
         <v>-88180.27541442004</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
-      </c>
-      <c r="I565" t="n">
-        <v>3412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -20299,11 +19901,9 @@
         <v>-87832.19111442004</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="n">
-        <v>3411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -20338,11 +19938,9 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -20377,11 +19975,9 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -20749,11 +20345,9 @@
         <v>-86258.83071442005</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20788,11 +20382,9 @@
         <v>-85644.83073223005</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>3422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20827,11 +20419,9 @@
         <v>-83786.05493223005</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>3426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20866,11 +20456,9 @@
         <v>-83998.05493223005</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="n">
-        <v>3429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20905,11 +20493,9 @@
         <v>-83998.65493223006</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="n">
-        <v>3428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20944,11 +20530,9 @@
         <v>-86655.61913223006</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="n">
-        <v>3427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20983,11 +20567,9 @@
         <v>-86630.76713223006</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -21022,11 +20604,9 @@
         <v>-87932.96213223007</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>3428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -21061,11 +20641,9 @@
         <v>-87959.65723223006</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -21100,11 +20678,9 @@
         <v>-87959.65723223006</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -21139,11 +20715,9 @@
         <v>-87441.12303223007</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -21178,11 +20752,9 @@
         <v>-87435.29373223007</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="n">
-        <v>3429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -21217,11 +20789,9 @@
         <v>-87446.96253223007</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
-      </c>
-      <c r="I590" t="n">
-        <v>3431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -21256,11 +20826,9 @@
         <v>-87422.56293223007</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
-      </c>
-      <c r="I591" t="n">
-        <v>3426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -21295,11 +20863,9 @@
         <v>-87425.04443223006</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="n">
-        <v>3429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -21667,11 +21233,9 @@
         <v>-93755.17691121006</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21706,11 +21270,9 @@
         <v>-95731.64291121006</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21745,11 +21307,9 @@
         <v>-95731.64291121006</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21784,11 +21344,9 @@
         <v>-91702.29111121006</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21823,11 +21381,9 @@
         <v>-91443.27611121006</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21862,11 +21418,9 @@
         <v>-93832.35811121005</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21901,11 +21455,9 @@
         <v>-93832.35811121005</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21940,11 +21492,9 @@
         <v>-93832.35811121005</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21979,11 +21529,9 @@
         <v>-93832.35811121005</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -22018,11 +21566,9 @@
         <v>-93832.35811121005</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -22057,11 +21603,9 @@
         <v>-93609.03031121005</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -22096,11 +21640,9 @@
         <v>-94701.25171121005</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -22135,11 +21677,9 @@
         <v>-95103.68381121005</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -22174,11 +21714,9 @@
         <v>-94684.83931121005</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -22213,11 +21751,9 @@
         <v>-94707.14861121004</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -22252,11 +21788,9 @@
         <v>-96426.86021121003</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>3412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -22291,11 +21825,9 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>3409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -22330,11 +21862,9 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
-      </c>
-      <c r="I619" t="n">
-        <v>3413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -22369,11 +21899,9 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="n">
-        <v>3413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -22408,11 +21936,9 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -22447,11 +21973,9 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
-      </c>
-      <c r="I622" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -22486,11 +22010,9 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
-      </c>
-      <c r="I623" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -22525,11 +22047,9 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
-      </c>
-      <c r="I624" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -22564,11 +22084,9 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
-      </c>
-      <c r="I625" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -22603,11 +22121,9 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -22642,11 +22158,9 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -22681,11 +22195,9 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -22720,11 +22232,9 @@
         <v>-89310.38291121004</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -22759,11 +22269,9 @@
         <v>-89119.37931121004</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
-      </c>
-      <c r="I630" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22798,11 +22306,9 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22837,11 +22343,9 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -22876,11 +22380,9 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22915,11 +22417,9 @@
         <v>-88967.01041121004</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -22954,11 +22454,9 @@
         <v>-88266.59491121004</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>3421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22993,11 +22491,9 @@
         <v>-91891.93371121003</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -23032,11 +22528,9 @@
         <v>-91325.82961121004</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -23071,11 +22565,9 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -23110,11 +22602,9 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -23149,11 +22639,9 @@
         <v>-91072.01771121004</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -23188,11 +22676,9 @@
         <v>-91302.06771121004</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>3426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -23227,11 +22713,9 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>3422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -23266,11 +22750,9 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -23305,11 +22787,9 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -23344,11 +22824,9 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -23383,11 +22861,9 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -23422,11 +22898,9 @@
         <v>-91924.98431121005</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -23461,11 +22935,9 @@
         <v>-89905.06711121005</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
-      </c>
-      <c r="I648" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -23500,11 +22972,9 @@
         <v>-90191.34501121005</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -23539,11 +23009,9 @@
         <v>-89785.92901121006</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -23578,11 +23046,9 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -23617,11 +23083,9 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -23656,11 +23120,9 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -23695,11 +23157,9 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="n">
-        <v>3421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -23734,11 +23194,9 @@
         <v>-89591.58641121005</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="n">
-        <v>3421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -23773,11 +23231,9 @@
         <v>-90091.43641121006</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -23812,11 +23268,9 @@
         <v>-90214.42491121007</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
-      </c>
-      <c r="I657" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -23851,11 +23305,9 @@
         <v>-90206.51501121007</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="n">
-        <v>3411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -23890,11 +23342,9 @@
         <v>-90208.51501121007</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
-      </c>
-      <c r="I659" t="n">
-        <v>3413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -23929,11 +23379,9 @@
         <v>-90194.91751121006</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="n">
-        <v>3410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -23968,11 +23416,9 @@
         <v>-90192.64076548006</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -24007,11 +23453,9 @@
         <v>-90449.52286548006</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -24046,11 +23490,9 @@
         <v>-90397.82376548006</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -24085,11 +23527,9 @@
         <v>-90164.27886548007</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>3421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -24124,11 +23564,9 @@
         <v>-93273.82616548007</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="n">
-        <v>3422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -24163,11 +23601,9 @@
         <v>-92926.83426548008</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -24202,11 +23638,9 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
-      </c>
-      <c r="I667" t="n">
-        <v>3422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -24241,11 +23675,9 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
-      </c>
-      <c r="I668" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -24280,11 +23712,9 @@
         <v>-89928.27266548008</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
-      </c>
-      <c r="I669" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -24319,11 +23749,9 @@
         <v>-89927.71266548008</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
-      </c>
-      <c r="I670" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -24358,11 +23786,9 @@
         <v>-88113.85396548008</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>3428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -24397,11 +23823,9 @@
         <v>-92121.34706548009</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>3435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -24436,11 +23860,9 @@
         <v>-88887.92036548009</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="n">
-        <v>3434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -24475,11 +23897,9 @@
         <v>-88794.4004654801</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>3438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -24514,11 +23934,9 @@
         <v>-86347.96746548009</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
-      </c>
-      <c r="I675" t="n">
-        <v>3440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -24553,11 +23971,9 @@
         <v>-94550.94646548008</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
-      </c>
-      <c r="I676" t="n">
-        <v>3446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -24592,11 +24008,9 @@
         <v>-93146.56076548008</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
-      </c>
-      <c r="I677" t="n">
-        <v>3444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -24631,11 +24045,9 @@
         <v>-94576.04926548009</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
-      </c>
-      <c r="I678" t="n">
-        <v>3448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -24670,11 +24082,9 @@
         <v>-94480.68606548008</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
-      </c>
-      <c r="I679" t="n">
-        <v>3441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
@@ -24709,11 +24119,9 @@
         <v>-93749.36296548009</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="n">
-        <v>3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -24748,11 +24156,9 @@
         <v>-92052.77656548009</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
-      </c>
-      <c r="I681" t="n">
-        <v>3449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -24787,11 +24193,9 @@
         <v>-91149.97880234009</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
-      </c>
-      <c r="I682" t="n">
-        <v>3459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -24826,11 +24230,9 @@
         <v>-91211.47880234009</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
-      </c>
-      <c r="I683" t="n">
-        <v>3467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -24865,11 +24267,9 @@
         <v>-92134.02820234009</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
-      </c>
-      <c r="I684" t="n">
-        <v>3462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -24904,11 +24304,9 @@
         <v>-92134.02820234009</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
-      </c>
-      <c r="I685" t="n">
-        <v>3458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -24943,11 +24341,9 @@
         <v>-92128.02820234009</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
-      </c>
-      <c r="I686" t="n">
-        <v>3458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -24982,11 +24378,9 @@
         <v>-97290.13810932009</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>3459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -25021,11 +24415,9 @@
         <v>-96774.58120932009</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="n">
-        <v>3456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -25060,11 +24452,9 @@
         <v>-96774.58120932009</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="n">
-        <v>3458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -25099,11 +24489,9 @@
         <v>-97400.7596093201</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>3458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -25138,11 +24526,9 @@
         <v>-97491.14760932011</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="n">
-        <v>3454</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -25177,11 +24563,9 @@
         <v>-97491.14760932011</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
-      </c>
-      <c r="I692" t="n">
-        <v>3450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -25216,11 +24600,9 @@
         <v>-96224.4662093201</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>3450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -25255,11 +24637,9 @@
         <v>-101555.4673093201</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>3452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -25294,11 +24674,9 @@
         <v>-99477.0356093201</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
-      </c>
-      <c r="I695" t="n">
-        <v>3448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -25333,11 +24711,9 @@
         <v>-99671.38480932009</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
-      </c>
-      <c r="I696" t="n">
-        <v>3449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -25372,11 +24748,9 @@
         <v>-97735.9557093201</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
-      </c>
-      <c r="I697" t="n">
-        <v>3443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -25411,11 +24785,9 @@
         <v>-98324.3371093201</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
-      </c>
-      <c r="I698" t="n">
-        <v>3444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -25450,11 +24822,9 @@
         <v>-98324.3371093201</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
-      </c>
-      <c r="I699" t="n">
-        <v>3441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -25489,11 +24859,9 @@
         <v>-98288.83450932009</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
-      </c>
-      <c r="I700" t="n">
-        <v>3441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -25528,7 +24896,7 @@
         <v>-100885.1398093201</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>3445</v>
@@ -25567,11 +24935,9 @@
         <v>-100990.0203093201</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
-      </c>
-      <c r="I702" t="n">
-        <v>3440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
@@ -25606,7 +24972,7 @@
         <v>-100570.4559093201</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>3437</v>
@@ -25645,7 +25011,7 @@
         <v>-103391.3660093201</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>3441</v>
@@ -25684,7 +25050,7 @@
         <v>-103056.3065093201</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>3437</v>
@@ -25723,7 +25089,7 @@
         <v>-118765.3167093201</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>3441</v>
@@ -25762,7 +25128,7 @@
         <v>-117576.9712093201</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>3435</v>
@@ -25801,7 +25167,7 @@
         <v>-117752.7492690101</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>3439</v>
@@ -25840,7 +25206,7 @@
         <v>-111928.2729690101</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>3437</v>
@@ -25879,7 +25245,7 @@
         <v>-108825.2999690101</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>3449</v>
@@ -25918,7 +25284,7 @@
         <v>-107978.4704690101</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>3452</v>
@@ -25957,7 +25323,7 @@
         <v>-103201.2390690101</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>3454</v>
@@ -25996,11 +25362,9 @@
         <v>-103723.6797690101</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
-      </c>
-      <c r="I713" t="n">
-        <v>3462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -26035,11 +25399,9 @@
         <v>-107089.9009690101</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
-      </c>
-      <c r="I714" t="n">
-        <v>3461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -26074,11 +25436,9 @@
         <v>-108217.4334690101</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>3456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -26113,11 +25473,9 @@
         <v>-109665.8533965201</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
-      </c>
-      <c r="I716" t="n">
-        <v>3451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -26152,11 +25510,9 @@
         <v>-108359.9875965201</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
-      </c>
-      <c r="I717" t="n">
-        <v>3449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -26191,7 +25547,7 @@
         <v>-119090.2479965201</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>3450</v>
@@ -26230,7 +25586,7 @@
         <v>-124734.8837023201</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
         <v>3445</v>
@@ -26269,7 +25625,7 @@
         <v>-126195.5023023201</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>3444</v>
@@ -26308,7 +25664,7 @@
         <v>-124409.6098023201</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
         <v>3437</v>
@@ -26347,7 +25703,7 @@
         <v>-124359.6098023201</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I722" t="n">
         <v>3441</v>
@@ -26386,7 +25742,7 @@
         <v>-124359.6098023201</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I723" t="n">
         <v>3444</v>
@@ -26425,7 +25781,7 @@
         <v>-124259.6098023201</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>3444</v>
@@ -26464,7 +25820,7 @@
         <v>-124244.0728023201</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>3446</v>
@@ -26503,7 +25859,7 @@
         <v>-124238.7767023201</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
         <v>3448</v>
@@ -26542,11 +25898,9 @@
         <v>-124238.7767023201</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
-      </c>
-      <c r="I727" t="n">
-        <v>3449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -26581,7 +25935,7 @@
         <v>-126022.3475023201</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I728" t="n">
         <v>3449</v>
@@ -26620,7 +25974,7 @@
         <v>-126022.3475023201</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I729" t="n">
         <v>3446</v>
@@ -26659,7 +26013,7 @@
         <v>-126171.9810479101</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>3446</v>
@@ -26698,7 +26052,7 @@
         <v>-128337.1180479101</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I731" t="n">
         <v>3443</v>
@@ -26737,7 +26091,7 @@
         <v>-128462.6664479101</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I732" t="n">
         <v>3441</v>
@@ -26776,7 +26130,7 @@
         <v>-128421.0873479101</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I733" t="n">
         <v>3438</v>
@@ -26815,7 +26169,7 @@
         <v>-128254.7717479101</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I734" t="n">
         <v>3447</v>
@@ -27150,11 +26504,9 @@
         <v>-125039.6639479101</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
-      </c>
-      <c r="I743" t="n">
-        <v>3452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -27189,11 +26541,9 @@
         <v>-125019.4239479101</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="n">
-        <v>3452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -27228,11 +26578,9 @@
         <v>-125019.4239479101</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="n">
-        <v>3453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -27267,11 +26615,9 @@
         <v>-124358.6150479101</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="n">
-        <v>3453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -27306,11 +26652,9 @@
         <v>-120301.3891681801</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="n">
-        <v>3454</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -27345,11 +26689,9 @@
         <v>-118267.7258812701</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="n">
-        <v>3460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -27384,11 +26726,9 @@
         <v>-117685.4324812701</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="n">
-        <v>3461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -27423,11 +26763,9 @@
         <v>-117878.9240812701</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="n">
-        <v>3463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -27462,11 +26800,9 @@
         <v>-117909.7897812701</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="n">
-        <v>3462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -27501,11 +26837,9 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="n">
-        <v>3461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -27540,11 +26874,9 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
-      </c>
-      <c r="I753" t="n">
-        <v>3462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -27579,11 +26911,9 @@
         <v>-114821.4659812701</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="n">
-        <v>3462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -27618,11 +26948,9 @@
         <v>-111267.9056812701</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
-      </c>
-      <c r="I755" t="n">
-        <v>3460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -27657,11 +26985,9 @@
         <v>-111352.5879812701</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
-      </c>
-      <c r="I756" t="n">
-        <v>3463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -27696,11 +27022,9 @@
         <v>-111352.5879812701</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
-      </c>
-      <c r="I757" t="n">
-        <v>3460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -27735,11 +27059,9 @@
         <v>-112190.1234812701</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
-      </c>
-      <c r="I758" t="n">
-        <v>3460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -27774,7 +27096,7 @@
         <v>-113249.9983812701</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>3457</v>
@@ -27813,7 +27135,7 @@
         <v>-113249.9983812701</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>3456</v>
@@ -27852,7 +27174,7 @@
         <v>-112508.2015812701</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>3456</v>
@@ -27891,7 +27213,7 @@
         <v>-117765.4116812701</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>3467</v>
@@ -27930,7 +27252,7 @@
         <v>-116973.9439812701</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>3466</v>
@@ -27969,7 +27291,7 @@
         <v>-114022.9954812701</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>3469</v>
@@ -28008,11 +27330,9 @@
         <v>-117926.7266812701</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
-      </c>
-      <c r="I765" t="n">
-        <v>3470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -28047,11 +27367,9 @@
         <v>-113307.0988812701</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
-      </c>
-      <c r="I766" t="n">
-        <v>3468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -28086,11 +27404,9 @@
         <v>-112485.0073812701</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
-      </c>
-      <c r="I767" t="n">
-        <v>3473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -28125,11 +27441,9 @@
         <v>-112399.0157812701</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
-      </c>
-      <c r="I768" t="n">
-        <v>3475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -28164,11 +27478,9 @@
         <v>-112716.5590812701</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
-      </c>
-      <c r="I769" t="n">
-        <v>3480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -28203,11 +27515,9 @@
         <v>-112731.0633812701</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
-      </c>
-      <c r="I770" t="n">
-        <v>3475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -28242,7 +27552,7 @@
         <v>-110885.5311812701</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771" t="n">
         <v>3473</v>
@@ -28281,7 +27591,7 @@
         <v>-113331.3520812701</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I772" t="n">
         <v>3477</v>
@@ -28320,7 +27630,7 @@
         <v>-113749.6000812701</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I773" t="n">
         <v>3474</v>
@@ -28359,7 +27669,7 @@
         <v>-115816.9099812701</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I774" t="n">
         <v>3469</v>
@@ -28398,7 +27708,7 @@
         <v>-115816.9099812701</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
         <v>3467</v>
@@ -28437,7 +27747,7 @@
         <v>-118671.3326812701</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I776" t="n">
         <v>3467</v>
@@ -28476,7 +27786,7 @@
         <v>-118662.6149812701</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
         <v>3464</v>
@@ -28515,7 +27825,7 @@
         <v>-121003.2926812701</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I778" t="n">
         <v>3465</v>
@@ -28554,7 +27864,7 @@
         <v>-120492.4505812701</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779" t="n">
         <v>3464</v>
@@ -28593,7 +27903,7 @@
         <v>-118201.1766812701</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>3466</v>
@@ -28632,7 +27942,7 @@
         <v>-115047.2686812701</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I781" t="n">
         <v>3470</v>
@@ -28671,7 +27981,7 @@
         <v>-116363.4925812701</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I782" t="n">
         <v>3475</v>
@@ -28710,7 +28020,7 @@
         <v>-116476.6570812701</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783" t="n">
         <v>3473</v>
@@ -28749,7 +28059,7 @@
         <v>-112305.1375812701</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
         <v>3472</v>
@@ -28788,7 +28098,7 @@
         <v>-112909.5951812701</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I785" t="n">
         <v>3474</v>
@@ -28827,7 +28137,7 @@
         <v>-113814.9048812701</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I786" t="n">
         <v>3472</v>
@@ -28866,7 +28176,7 @@
         <v>-114260.1676812701</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I787" t="n">
         <v>3469</v>
@@ -28905,7 +28215,7 @@
         <v>-116262.8203812701</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I788" t="n">
         <v>3468</v>
@@ -28944,7 +28254,7 @@
         <v>-93481.56358127009</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I789" t="n">
         <v>3467</v>
@@ -28983,7 +28293,7 @@
         <v>-78898.0125812701</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I790" t="n">
         <v>3475</v>
@@ -29022,7 +28332,7 @@
         <v>-77442.1472812701</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I791" t="n">
         <v>3480</v>
@@ -29061,9 +28371,11 @@
         <v>-77442.1472812701</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>3481</v>
+      </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -29098,9 +28410,11 @@
         <v>-77526.92728127009</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>3481</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -29135,9 +28449,11 @@
         <v>-82809.9940812701</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>3480</v>
+      </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -29209,9 +28525,11 @@
         <v>-82383.04428127009</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>3474</v>
+      </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -29579,9 +28897,11 @@
         <v>-81660.41138127008</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>3478</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -29616,9 +28936,11 @@
         <v>-75931.62228127009</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>3477</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -29653,9 +28975,11 @@
         <v>-76423.71238127009</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>3482</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -29690,9 +29014,11 @@
         <v>-76423.71238127009</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>3476</v>
+      </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -29727,9 +29053,11 @@
         <v>-77488.67028742009</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>3476</v>
+      </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -29801,9 +29129,11 @@
         <v>-81013.42598742009</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>3466</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -29875,9 +29205,11 @@
         <v>-81366.8985874201</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>3469</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -34537,11 +33869,9 @@
         <v>-60510.11104610009</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
-      </c>
-      <c r="I940" t="n">
-        <v>3449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -34576,11 +33906,9 @@
         <v>-60261.23784610009</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
-      </c>
-      <c r="I941" t="n">
-        <v>3445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -34615,11 +33943,9 @@
         <v>-60145.61844610009</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
-      </c>
-      <c r="I942" t="n">
-        <v>3448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -34691,11 +34017,9 @@
         <v>-61416.04814610009</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
-      </c>
-      <c r="I944" t="n">
-        <v>3446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -34730,11 +34054,9 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
-      </c>
-      <c r="I945" t="n">
-        <v>3451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -34769,11 +34091,9 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
-      </c>
-      <c r="I946" t="n">
-        <v>3450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -34808,11 +34128,9 @@
         <v>-61447.44254610009</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
-      </c>
-      <c r="I947" t="n">
-        <v>3450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -34847,11 +34165,9 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
-      </c>
-      <c r="I948" t="n">
-        <v>3451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -34886,11 +34202,9 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
-      </c>
-      <c r="I949" t="n">
-        <v>3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -34925,11 +34239,9 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
-      </c>
-      <c r="I950" t="n">
-        <v>3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -34964,11 +34276,9 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
-      </c>
-      <c r="I951" t="n">
-        <v>3444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -35003,11 +34313,9 @@
         <v>-65435.73324610009</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
-      </c>
-      <c r="I952" t="n">
-        <v>3444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -35042,11 +34350,9 @@
         <v>-62464.13534610009</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
-      </c>
-      <c r="I953" t="n">
-        <v>3442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -35081,11 +34387,9 @@
         <v>-61868.32344610009</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
-      </c>
-      <c r="I954" t="n">
-        <v>3443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -35120,11 +34424,9 @@
         <v>-62959.31164610009</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
-      </c>
-      <c r="I955" t="n">
-        <v>3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -35159,11 +34461,9 @@
         <v>-62643.98014610009</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
-      </c>
-      <c r="I956" t="n">
-        <v>3440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -35198,11 +34498,9 @@
         <v>-53574.45134610009</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
-      </c>
-      <c r="I957" t="n">
-        <v>3442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -35237,11 +34535,9 @@
         <v>-54971.83274610009</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
-      </c>
-      <c r="I958" t="n">
-        <v>3451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -35276,11 +34572,9 @@
         <v>-56330.09344610009</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
-      </c>
-      <c r="I959" t="n">
-        <v>3449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -35315,11 +34609,9 @@
         <v>-56330.09344610009</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
-      </c>
-      <c r="I960" t="n">
-        <v>3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -35354,11 +34646,9 @@
         <v>-56330.09344610009</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
-      </c>
-      <c r="I961" t="n">
-        <v>3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
@@ -35393,11 +34683,9 @@
         <v>-52474.43804610008</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
-      </c>
-      <c r="I962" t="n">
-        <v>3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
@@ -35432,11 +34720,9 @@
         <v>-52474.43804610008</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
-      </c>
-      <c r="I963" t="n">
-        <v>3451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -35471,11 +34757,9 @@
         <v>-50419.61404610008</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
-      </c>
-      <c r="I964" t="n">
-        <v>3451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -35510,11 +34794,9 @@
         <v>-50419.61404610008</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
-      </c>
-      <c r="I965" t="n">
-        <v>3453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -35549,11 +34831,9 @@
         <v>-50430.56254610008</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
-      </c>
-      <c r="I966" t="n">
-        <v>3453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -36180,11 +35460,9 @@
         <v>-58266.93924610008</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
-      </c>
-      <c r="I983" t="n">
-        <v>3448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -39475,16 +38753,18 @@
         <v>21834.46860908992</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1072" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1072" t="n">
+        <v>1</v>
+      </c>
       <c r="M1072" t="inlineStr"/>
     </row>
     <row r="1073">
@@ -39510,11 +38790,15 @@
         <v>28632.48210908992</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -39543,11 +38827,15 @@
         <v>5044.603149899922</v>
       </c>
       <c r="H1074" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -39576,11 +38864,15 @@
         <v>16577.54074989992</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -39609,11 +38901,15 @@
         <v>20564.84694989992</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -39642,11 +38938,15 @@
         <v>58871.04494989992</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -39675,11 +38975,15 @@
         <v>132208.4307498999</v>
       </c>
       <c r="H1078" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -39708,11 +39012,15 @@
         <v>84503.7948540099</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -39741,11 +39049,15 @@
         <v>66263.0923145499</v>
       </c>
       <c r="H1080" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -39774,11 +39086,15 @@
         <v>76780.1602454899</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -39807,11 +39123,15 @@
         <v>83214.2202555999</v>
       </c>
       <c r="H1082" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -39840,11 +39160,15 @@
         <v>75774.7506555999</v>
       </c>
       <c r="H1083" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -39873,11 +39197,15 @@
         <v>82261.71164548989</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -39906,11 +39234,15 @@
         <v>77733.53324548989</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -39939,11 +39271,15 @@
         <v>86418.58784548989</v>
       </c>
       <c r="H1086" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -39972,11 +39308,15 @@
         <v>91442.98574918989</v>
       </c>
       <c r="H1087" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -40009,7 +39349,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -40042,7 +39386,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -40075,7 +39423,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -40108,7 +39460,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -40137,11 +39493,15 @@
         <v>76787.89822402988</v>
       </c>
       <c r="H1092" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -40174,7 +39534,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -40203,11 +39567,15 @@
         <v>86434.51942402987</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -40240,7 +39608,11 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -40269,11 +39641,15 @@
         <v>85850.93948142987</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -40306,7 +39682,11 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -40335,11 +39715,15 @@
         <v>75823.00378142987</v>
       </c>
       <c r="H1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -40368,11 +39752,15 @@
         <v>70532.84218142986</v>
       </c>
       <c r="H1099" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -40401,11 +39789,15 @@
         <v>72664.98608142986</v>
       </c>
       <c r="H1100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -40434,14 +39826,16 @@
         <v>72664.98608142986</v>
       </c>
       <c r="H1101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
-      <c r="L1101" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1101" t="inlineStr"/>
       <c r="M1101" t="inlineStr"/>
     </row>
     <row r="1102">
@@ -40467,7 +39861,7 @@
         <v>86694.90212402986</v>
       </c>
       <c r="H1102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -40500,7 +39894,7 @@
         <v>76700.85442402987</v>
       </c>
       <c r="H1103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -40533,7 +39927,7 @@
         <v>85450.50052402986</v>
       </c>
       <c r="H1104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -40566,7 +39960,7 @@
         <v>76409.40527577986</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -40599,7 +39993,7 @@
         <v>76601.75497577987</v>
       </c>
       <c r="H1106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -40632,7 +40026,7 @@
         <v>123082.4041124899</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -40665,7 +40059,7 @@
         <v>135700.0047124899</v>
       </c>
       <c r="H1108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -40698,7 +40092,7 @@
         <v>128635.3625491999</v>
       </c>
       <c r="H1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -40731,7 +40125,7 @@
         <v>117117.8685491999</v>
       </c>
       <c r="H1110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -40830,7 +40224,7 @@
         <v>107571.3662707199</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -40863,7 +40257,7 @@
         <v>100690.5012707199</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -40929,7 +40323,7 @@
         <v>73792.18726502986</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -40962,7 +40356,7 @@
         <v>77700.40006502985</v>
       </c>
       <c r="H1117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -40995,7 +40389,7 @@
         <v>69703.14586502986</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -41028,7 +40422,7 @@
         <v>73534.63616502986</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -41039,6 +40433,6 @@
       <c r="M1119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest EOS.xlsx
+++ b/BackTest/2020-01-13 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>42760.08439821</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>41396.52319820999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>41125.27719820999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>41125.27719820999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>51615.50119821</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>49866.71499820999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>49866.71499820999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>32943.63369820999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>32103.05299820999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>30429.04819820999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>31311.70129820999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>31311.70129820999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>31640.74589820999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>39685.61599820999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>50929.32529820999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>53260.34639820999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>49256.58999820999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>49256.58999820999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>43664.36989821</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>41921.7327702</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>44935.43215795</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>48099.06035794999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>48212.69635794999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>42605.20945795</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>42354.25415795</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>42397.07725795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>42679.12085794999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>57760.14615795</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>61840.32255794999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>60982.52565794999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>60982.52565794999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>60616.54129561999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>59741.53049562</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>63021.31899562</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>63021.31899562</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>62277.89019562</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>62277.89019562</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>68755.56689749</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>66827.10219749001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>68217.28789749001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>67154.23989749001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>68761.07339749001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>82960.74169749001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>82210.50529749002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>81574.96739749002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>80984.29580690002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>87807.87470690001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>86640.85140690001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>87483.80340690001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>82168.04130690001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>82211.45430690001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>76939.6105069</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>76613.0186069</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>73801.8966069</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>74485.17400690001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>74371.5740069</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>74238.46290690001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>81105.5299069</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>73123.28025401002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>65167.00865401002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>65150.94865401003</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>65449.79255401003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>65449.79255401003</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>66263.44675401003</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>66263.44675401003</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>72825.88495401003</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>72179.59845401003</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>72341.88935401004</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>72499.39315401005</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>71130.06815401005</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>71066.06915401005</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>70993.38015401005</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>80851.59175401005</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>69181.22965401004</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>69164.78135401003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>70217.75655401003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -13321,17 +13321,11 @@
         <v>-97003.92566285002</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>3325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13360,17 +13354,11 @@
         <v>-101051.92226285</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>3341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13399,17 +13387,11 @@
         <v>-100424.83146285</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>3338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13438,17 +13420,11 @@
         <v>-101481.60808578</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>3356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13477,17 +13453,11 @@
         <v>-101648.33538578</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>3354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13516,17 +13486,11 @@
         <v>-101648.33538578</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>3353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13555,17 +13519,11 @@
         <v>-98064.82360871001</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>3353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13594,17 +13552,11 @@
         <v>-96475.81250871001</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>3368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13633,17 +13585,11 @@
         <v>-98037.79627295</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>3370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13672,17 +13618,11 @@
         <v>-98037.79627295</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>3369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13711,17 +13651,11 @@
         <v>-96659.63057295</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>3369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13750,17 +13684,11 @@
         <v>-98060.23827295</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>3370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13789,17 +13717,11 @@
         <v>-98060.23827295</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>3369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13832,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13865,17 +13783,11 @@
         <v>-98767.47797295</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>3369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13904,17 +13816,11 @@
         <v>-98444.79017295</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>3368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13943,17 +13849,11 @@
         <v>-98444.79017295</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>3378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13986,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14023,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14056,17 +13948,11 @@
         <v>-97885.74737294999</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>3381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14099,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14132,17 +14014,11 @@
         <v>-99813.29897295</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>3382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14175,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14208,17 +14080,11 @@
         <v>-100424.10697295</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>3380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14251,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14288,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14321,17 +14179,11 @@
         <v>-99381.88197294998</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>3378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14364,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14397,17 +14245,11 @@
         <v>-93758.64737294998</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>3387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14440,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14477,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14514,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14551,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14588,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14625,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14662,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14699,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14736,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14810,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14847,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14884,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14917,17 +14707,11 @@
         <v>-96276.03047294998</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>3402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14956,17 +14740,11 @@
         <v>-96262.25907294998</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14995,17 +14773,11 @@
         <v>-96681.04137294999</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15034,17 +14806,11 @@
         <v>-97687.51137294999</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15073,17 +14839,11 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>3396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15112,17 +14872,11 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>3393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15151,17 +14905,11 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>3393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15190,17 +14938,11 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>3393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15229,17 +14971,11 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>3401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15268,17 +15004,11 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>3401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15307,17 +15037,11 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>3401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15346,17 +15070,11 @@
         <v>-106965.22757295</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>3401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15385,17 +15103,11 @@
         <v>-106940.77027295</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>3397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15424,17 +15136,11 @@
         <v>-110333.35637295</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15463,17 +15169,11 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>3394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15502,17 +15202,11 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>3390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15549,7 +15243,7 @@
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L450" t="n">
@@ -15658,11 +15352,9 @@
         <v>-122032.36197295</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15697,11 +15389,9 @@
         <v>-112555.66567295</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15736,11 +15426,9 @@
         <v>-109425.85047295</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>3405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15775,11 +15463,9 @@
         <v>-110895.09819032</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>3410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15814,11 +15500,9 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>3408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -15853,11 +15537,9 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>3407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15892,11 +15574,9 @@
         <v>-113141.55769032</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>3407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15931,11 +15611,9 @@
         <v>-108152.12331527</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>3403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16118,11 +15796,9 @@
         <v>-102565.18066579</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>3404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16194,11 +15870,9 @@
         <v>-112270.49876579</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16233,11 +15907,9 @@
         <v>-112137.02636579</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16309,11 +15981,9 @@
         <v>-110276.59436579</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>3402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16578,9 +16248,11 @@
         <v>-89233.47806579</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>3405</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16615,9 +16287,11 @@
         <v>-91046.36756579</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>3405</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16726,9 +16400,11 @@
         <v>-95209.86506579</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>3397</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16763,9 +16439,11 @@
         <v>-102923.50626579</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>3397</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16800,9 +16478,11 @@
         <v>-108970.40626579</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>3392</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -16837,9 +16517,11 @@
         <v>-108970.40626579</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>3388</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -16874,9 +16556,11 @@
         <v>-111011.95586579</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>3388</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16989,9 +16673,11 @@
         <v>-112022.06046579</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>3386</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -17065,9 +16751,11 @@
         <v>-113109.74836579</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>3390</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -17141,9 +16829,11 @@
         <v>-112609.49256579</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>3399</v>
+      </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -17178,9 +16868,11 @@
         <v>-106561.06586579</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>3402</v>
+      </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -17215,9 +16907,11 @@
         <v>-109229.74196579</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>3404</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17252,9 +16946,11 @@
         <v>-109229.74196579</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>3403</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17289,9 +16985,11 @@
         <v>-109348.79846579</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>3403</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17326,9 +17024,11 @@
         <v>-109098.79846579</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>3400</v>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17363,9 +17063,11 @@
         <v>-109127.16846579</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>3402</v>
+      </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17400,9 +17102,11 @@
         <v>-109053.88666579</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>3400</v>
+      </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17437,9 +17141,11 @@
         <v>-109053.88666579</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>3403</v>
+      </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17474,9 +17180,11 @@
         <v>-110203.41216579</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>3403</v>
+      </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17511,9 +17219,11 @@
         <v>-109683.00056579</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>3400</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17548,9 +17258,11 @@
         <v>-110183.99056579</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>3401</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17585,9 +17297,11 @@
         <v>-110183.99056579</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>3400</v>
+      </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17622,9 +17336,11 @@
         <v>-107618.92016579</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>3400</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17737,9 +17453,11 @@
         <v>-102958.53086579</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>3409</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17774,9 +17492,11 @@
         <v>-103006.31196579</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>3416</v>
+      </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17811,9 +17531,11 @@
         <v>-102353.15006579</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>3409</v>
+      </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17848,9 +17570,11 @@
         <v>-101884.05006579</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>3415</v>
+      </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -18699,11 +18423,9 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18738,11 +18460,9 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18777,11 +18497,9 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18816,11 +18534,9 @@
         <v>-99299.42836579004</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -19566,9 +19282,11 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>3415</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19642,9 +19360,11 @@
         <v>-87212.56961442003</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>3415</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19679,9 +19399,11 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>3414</v>
+      </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19716,9 +19438,11 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>3411</v>
+      </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19753,9 +19477,11 @@
         <v>-87798.70531442003</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>3411</v>
+      </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19790,9 +19516,11 @@
         <v>-87774.63761442003</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>3409</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19827,9 +19555,11 @@
         <v>-87944.34761442004</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>3415</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19864,9 +19594,11 @@
         <v>-88180.27541442004</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>3412</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -19901,9 +19633,11 @@
         <v>-87832.19111442004</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>3411</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -19938,9 +19672,11 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>3417</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19975,9 +19711,11 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>3424</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -20012,9 +19750,11 @@
         <v>-87602.75881442004</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>3424</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -20049,9 +19789,11 @@
         <v>-84582.92011442005</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>3423</v>
+      </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -20086,9 +19828,11 @@
         <v>-84582.92011442005</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>3425</v>
+      </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -20160,9 +19904,11 @@
         <v>-76412.40831442006</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>3424</v>
+      </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -21566,9 +21312,11 @@
         <v>-93832.35811121005</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>3417</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21640,9 +21388,11 @@
         <v>-94701.25171121005</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>3418</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21677,9 +21427,11 @@
         <v>-95103.68381121005</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>3416</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21714,9 +21466,11 @@
         <v>-94684.83931121005</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>3414</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21751,9 +21505,11 @@
         <v>-94707.14861121004</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>3416</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21788,9 +21544,11 @@
         <v>-96426.86021121003</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>3412</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -21825,9 +21583,11 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>3409</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21862,9 +21622,11 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>3413</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -21899,9 +21661,11 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>3413</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21936,9 +21700,11 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>3416</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21973,9 +21739,11 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>3416</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -22010,9 +21778,11 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3414</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -22047,9 +21817,11 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>3414</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -22084,9 +21856,11 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>3415</v>
+      </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -22121,9 +21895,11 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>3415</v>
+      </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -22158,9 +21934,11 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>3415</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -22195,9 +21973,11 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>3418</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -22232,9 +22012,11 @@
         <v>-89310.38291121004</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>3418</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -22269,9 +22051,11 @@
         <v>-89119.37931121004</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>3419</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22306,9 +22090,11 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>3420</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22343,9 +22129,11 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>3419</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -22380,9 +22168,11 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>3419</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22417,9 +22207,11 @@
         <v>-88967.01041121004</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>3419</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -22454,9 +22246,11 @@
         <v>-88266.59491121004</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>3421</v>
+      </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22491,9 +22285,11 @@
         <v>-91891.93371121003</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>3425</v>
+      </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -22528,9 +22324,11 @@
         <v>-91325.82961121004</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>3423</v>
+      </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -22565,9 +22363,11 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>3424</v>
+      </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -22602,9 +22402,11 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>3423</v>
+      </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -22639,9 +22441,11 @@
         <v>-91072.01771121004</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>3423</v>
+      </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -22676,9 +22480,11 @@
         <v>-91302.06771121004</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>3426</v>
+      </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -22713,9 +22519,11 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>3422</v>
+      </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -22750,9 +22558,11 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>3423</v>
+      </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22787,9 +22597,11 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>3423</v>
+      </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22824,9 +22636,11 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>3418</v>
+      </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -22861,9 +22675,11 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>3418</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22898,9 +22714,11 @@
         <v>-91924.98431121005</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>3418</v>
+      </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22935,9 +22753,11 @@
         <v>-89905.06711121005</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>3414</v>
+      </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22972,9 +22792,11 @@
         <v>-90191.34501121005</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>3416</v>
+      </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -23009,9 +22831,11 @@
         <v>-89785.92901121006</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>3415</v>
+      </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -23046,9 +22870,11 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>3416</v>
+      </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -23083,9 +22909,11 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>3420</v>
+      </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -23120,9 +22948,11 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>3420</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -23157,9 +22987,11 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>3421</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -23194,9 +23026,11 @@
         <v>-89591.58641121005</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>3421</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -23231,9 +23065,11 @@
         <v>-90091.43641121006</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>3417</v>
+      </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -23268,9 +23104,11 @@
         <v>-90214.42491121007</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>3414</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -23305,9 +23143,11 @@
         <v>-90206.51501121007</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>3411</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -23342,9 +23182,11 @@
         <v>-90208.51501121007</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>3413</v>
+      </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -23379,9 +23221,11 @@
         <v>-90194.91751121006</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>3410</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -23416,9 +23260,11 @@
         <v>-90192.64076548006</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>3417</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -23453,9 +23299,11 @@
         <v>-90449.52286548006</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>3420</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -23490,9 +23338,11 @@
         <v>-90397.82376548006</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>3415</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -23527,9 +23377,11 @@
         <v>-90164.27886548007</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>3421</v>
+      </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23564,9 +23416,11 @@
         <v>-93273.82616548007</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>3422</v>
+      </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -23601,9 +23455,11 @@
         <v>-92926.83426548008</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>3420</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -23638,9 +23494,11 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>3422</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -23675,9 +23533,11 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>3417</v>
+      </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -23712,9 +23572,11 @@
         <v>-89928.27266548008</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>3417</v>
+      </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -23749,9 +23611,11 @@
         <v>-89927.71266548008</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>3425</v>
+      </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -24896,11 +24760,9 @@
         <v>-100885.1398093201</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>3445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
@@ -24972,11 +24834,9 @@
         <v>-100570.4559093201</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>3437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -25011,11 +24871,9 @@
         <v>-103391.3660093201</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>3441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
@@ -25050,11 +24908,9 @@
         <v>-103056.3065093201</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>3437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
@@ -25089,11 +24945,9 @@
         <v>-118765.3167093201</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>3441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
@@ -25128,11 +24982,9 @@
         <v>-117576.9712093201</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>3435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -25167,11 +25019,9 @@
         <v>-117752.7492690101</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>3439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -25206,11 +25056,9 @@
         <v>-111928.2729690101</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>3437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -25245,20 +25093,16 @@
         <v>-108825.2999690101</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>3449</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L710" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L710" t="inlineStr"/>
       <c r="M710" t="inlineStr"/>
     </row>
     <row r="711">
@@ -25284,17 +25128,11 @@
         <v>-107978.4704690101</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>3452</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25323,17 +25161,11 @@
         <v>-103201.2390690101</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>3454</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25362,15 +25194,11 @@
         <v>-103723.6797690101</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25399,15 +25227,11 @@
         <v>-107089.9009690101</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25436,15 +25260,11 @@
         <v>-108217.4334690101</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25473,15 +25293,11 @@
         <v>-109665.8533965201</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25510,15 +25326,11 @@
         <v>-108359.9875965201</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25547,17 +25359,11 @@
         <v>-119090.2479965201</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>3450</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25586,17 +25392,11 @@
         <v>-124734.8837023201</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>3445</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25625,17 +25425,11 @@
         <v>-126195.5023023201</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>3444</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25664,17 +25458,11 @@
         <v>-124409.6098023201</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>3437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25703,17 +25491,11 @@
         <v>-124359.6098023201</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>3441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25742,17 +25524,11 @@
         <v>-124359.6098023201</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>3444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25781,17 +25557,11 @@
         <v>-124259.6098023201</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>3444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25820,17 +25590,11 @@
         <v>-124244.0728023201</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>3446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25859,17 +25623,11 @@
         <v>-124238.7767023201</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>3448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25902,11 +25660,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25935,17 +25689,11 @@
         <v>-126022.3475023201</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>3449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25974,17 +25722,11 @@
         <v>-126022.3475023201</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>3446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26013,17 +25755,11 @@
         <v>-126171.9810479101</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>3446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26060,7 +25796,7 @@
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L731" t="n">
@@ -26208,9 +25944,11 @@
         <v>-128388.8077479101</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>3450</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -26245,9 +25983,11 @@
         <v>-128262.9103479101</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>3444</v>
+      </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -26282,9 +26022,11 @@
         <v>-128310.2870479101</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>3449</v>
+      </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -26319,9 +26061,11 @@
         <v>-125957.4202479101</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>3447</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -26356,9 +26100,11 @@
         <v>-125902.5628479101</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>3450</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -26393,9 +26139,11 @@
         <v>-125034.9966479101</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>3455</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -26430,9 +26178,11 @@
         <v>-125034.9966479101</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>3460</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -26689,18 +26439,16 @@
         <v>-118267.7258812701</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L748" t="inlineStr"/>
       <c r="M748" t="inlineStr"/>
     </row>
     <row r="749">
@@ -26726,15 +26474,11 @@
         <v>-117685.4324812701</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26763,15 +26507,11 @@
         <v>-117878.9240812701</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26800,15 +26540,11 @@
         <v>-117909.7897812701</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26837,15 +26573,11 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26874,15 +26606,11 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26911,15 +26639,11 @@
         <v>-114821.4659812701</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26948,15 +26672,11 @@
         <v>-111267.9056812701</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26989,11 +26709,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27026,11 +26742,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27063,11 +26775,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27104,7 +26812,7 @@
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L759" t="n">
@@ -27135,11 +26843,9 @@
         <v>-113249.9983812701</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>3456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -27174,11 +26880,9 @@
         <v>-112508.2015812701</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>3456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -27213,11 +26917,9 @@
         <v>-117765.4116812701</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>3467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -27330,9 +27032,11 @@
         <v>-117926.7266812701</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>3470</v>
+      </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -27367,9 +27071,11 @@
         <v>-113307.0988812701</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>3468</v>
+      </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -27404,9 +27110,11 @@
         <v>-112485.0073812701</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>3473</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -27552,11 +27260,9 @@
         <v>-110885.5311812701</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>3473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -27591,11 +27297,9 @@
         <v>-113331.3520812701</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>3477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -27630,11 +27334,9 @@
         <v>-113749.6000812701</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>3474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -27669,11 +27371,9 @@
         <v>-115816.9099812701</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>3469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -27708,11 +27408,9 @@
         <v>-115816.9099812701</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>3467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -27747,11 +27445,9 @@
         <v>-118671.3326812701</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>3467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -27786,11 +27482,9 @@
         <v>-118662.6149812701</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>3464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -27825,11 +27519,9 @@
         <v>-121003.2926812701</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>3465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -27864,11 +27556,9 @@
         <v>-120492.4505812701</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>3464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -27903,11 +27593,9 @@
         <v>-118201.1766812701</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>3466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -27942,11 +27630,9 @@
         <v>-115047.2686812701</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>3470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -27981,11 +27667,9 @@
         <v>-116363.4925812701</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>3475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -28020,11 +27704,9 @@
         <v>-116476.6570812701</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>3473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -28059,11 +27741,9 @@
         <v>-112305.1375812701</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>3472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -28098,11 +27778,9 @@
         <v>-112909.5951812701</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>3474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -28137,11 +27815,9 @@
         <v>-113814.9048812701</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>3472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -28176,11 +27852,9 @@
         <v>-114260.1676812701</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>3469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -28215,11 +27889,9 @@
         <v>-116262.8203812701</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>3468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -28254,11 +27926,9 @@
         <v>-93481.56358127009</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>3467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -28293,11 +27963,9 @@
         <v>-78898.0125812701</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>3475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -28332,11 +28000,9 @@
         <v>-77442.1472812701</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>3480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -28371,11 +28037,9 @@
         <v>-77442.1472812701</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>3481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -28410,11 +28074,9 @@
         <v>-77526.92728127009</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>3481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -28449,11 +28111,9 @@
         <v>-82809.9940812701</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>3480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -28525,11 +28185,9 @@
         <v>-82383.04428127009</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>3474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -28897,11 +28555,9 @@
         <v>-81660.41138127008</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>3478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -28936,11 +28592,9 @@
         <v>-75931.62228127009</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>3477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -28975,11 +28629,9 @@
         <v>-76423.71238127009</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>3482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -29014,11 +28666,9 @@
         <v>-76423.71238127009</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>3476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -29053,11 +28703,9 @@
         <v>-77488.67028742009</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>3476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -29129,11 +28777,9 @@
         <v>-81013.42598742009</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>3466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -29205,11 +28851,9 @@
         <v>-81366.8985874201</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>3469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -31760,9 +31404,11 @@
         <v>-81316.7432616201</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>3436</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -31797,9 +31443,11 @@
         <v>-81316.7432616201</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>3436</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -31834,9 +31482,11 @@
         <v>-84443.2197616201</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>3436</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -31871,9 +31521,11 @@
         <v>-84563.2197616201</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>3435</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -31908,9 +31560,11 @@
         <v>-85145.88316162011</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>3433</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -31945,9 +31599,11 @@
         <v>-85730.6361616201</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>3432</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -31982,9 +31638,11 @@
         <v>-87356.0775616201</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>3428</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -32019,9 +31677,11 @@
         <v>-86317.5886616201</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>3423</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -32056,9 +31716,11 @@
         <v>-86701.21556162011</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>3428</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -32093,9 +31755,11 @@
         <v>-87668.54506162011</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>3425</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -32130,9 +31794,11 @@
         <v>-88669.07376162011</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>3423</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -32167,9 +31833,11 @@
         <v>-92564.2485616201</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>3420</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -32204,9 +31872,11 @@
         <v>-73954.7237616201</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>3418</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -32241,9 +31911,11 @@
         <v>-76796.4283616201</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>3419</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -32278,9 +31950,11 @@
         <v>-76796.4283616201</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>3417</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -32315,9 +31989,11 @@
         <v>-75305.4449616201</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>3417</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -32352,9 +32028,11 @@
         <v>-75640.0753616201</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>3424</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -32389,9 +32067,11 @@
         <v>-75321.2203616201</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>3418</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -32426,9 +32106,11 @@
         <v>-75321.2203616201</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>3420</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -32463,9 +32145,11 @@
         <v>-75271.2203616201</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>3420</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -32500,9 +32184,11 @@
         <v>-73897.6012616201</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>3426</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -32537,9 +32223,11 @@
         <v>-73883.97516162011</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>3427</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -32574,9 +32262,11 @@
         <v>-73811.32576162012</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>3428</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -33906,18 +33596,16 @@
         <v>-60261.23784610009</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L941" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L941" t="inlineStr"/>
       <c r="M941" t="inlineStr"/>
     </row>
     <row r="942">
@@ -33947,11 +33635,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -33980,15 +33664,11 @@
         <v>-61895.49504610009</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -34017,15 +33697,11 @@
         <v>-61416.04814610009</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -34054,15 +33730,11 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -34091,15 +33763,11 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -34128,15 +33796,11 @@
         <v>-61447.44254610009</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -34165,15 +33829,11 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -34202,15 +33862,11 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -34239,15 +33895,11 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -34276,15 +33928,11 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -34317,11 +33965,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -34354,11 +33998,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34391,11 +34031,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34428,11 +34064,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34465,11 +34097,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34502,11 +34130,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34539,11 +34163,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34576,11 +34196,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -34613,11 +34229,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -34650,11 +34262,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -34687,11 +34295,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -34724,11 +34328,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -34761,11 +34361,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -34798,11 +34394,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -34835,11 +34427,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -34872,11 +34460,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -34909,11 +34493,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -34946,11 +34526,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -34983,11 +34559,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -35020,11 +34592,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -35057,11 +34625,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -35094,11 +34658,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -35131,11 +34691,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -35168,11 +34724,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -35205,11 +34757,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -35242,11 +34790,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -35279,11 +34823,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -35316,11 +34856,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35353,11 +34889,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35390,11 +34922,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35427,11 +34955,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35464,11 +34988,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35501,11 +35021,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35538,11 +35054,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35575,11 +35087,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -35612,11 +35120,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -35649,11 +35153,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -35686,11 +35186,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -35723,11 +35219,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -35760,11 +35252,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -35797,11 +35285,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -35834,11 +35318,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -35871,11 +35351,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -35908,11 +35384,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35945,11 +35417,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -35982,11 +35450,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -36019,11 +35483,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -36056,11 +35516,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -36093,11 +35549,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -36130,11 +35582,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -36167,11 +35615,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -36204,11 +35648,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -36241,11 +35681,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -36278,11 +35714,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -36315,11 +35747,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -36352,11 +35780,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -36389,11 +35813,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -36426,11 +35846,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -36463,11 +35879,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -36500,11 +35912,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -36537,11 +35945,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -36574,11 +35978,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -36611,11 +36011,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -36648,11 +36044,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -36685,11 +36077,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -36722,11 +36110,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -36759,11 +36143,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -36796,11 +36176,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -36833,11 +36209,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -36870,11 +36242,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -36907,11 +36275,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -36944,11 +36308,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -36981,11 +36341,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -37018,11 +36374,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -37055,11 +36407,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -37092,11 +36440,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -37129,11 +36473,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -37166,11 +36506,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -37203,11 +36539,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -37240,11 +36572,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -37277,11 +36605,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -37314,11 +36638,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -37351,11 +36671,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -37388,11 +36704,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -37425,11 +36737,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -37462,11 +36770,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -37499,11 +36803,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -37536,11 +36836,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -37573,11 +36869,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -37610,11 +36902,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -37647,11 +36935,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -37684,11 +36968,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -37721,11 +37001,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -37758,11 +37034,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -37795,11 +37067,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -37832,11 +37100,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -37869,11 +37133,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -37906,11 +37166,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -37943,11 +37199,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -37980,11 +37232,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -38017,11 +37265,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -38054,11 +37298,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -38091,11 +37331,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -38128,11 +37364,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -38165,11 +37397,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -38202,11 +37430,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -38239,11 +37463,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -38276,11 +37496,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -38309,15 +37525,11 @@
         <v>-19932.05479091008</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -38346,15 +37558,11 @@
         <v>-19590.14779091008</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -38383,15 +37591,11 @@
         <v>-19590.14779091008</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -38420,15 +37624,11 @@
         <v>-19591.15279091008</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -38457,15 +37657,11 @@
         <v>-18154.04359091008</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -38494,15 +37690,11 @@
         <v>-18154.04359091008</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -38531,15 +37723,11 @@
         <v>-15071.59019091008</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -38568,15 +37756,11 @@
         <v>-16497.26749091008</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -38605,15 +37789,11 @@
         <v>-13439.16239091008</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -38642,15 +37822,11 @@
         <v>-7949.524690910078</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -38679,15 +37855,11 @@
         <v>31421.12620908992</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -38716,15 +37888,11 @@
         <v>24130.79270908992</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -38753,15 +37921,11 @@
         <v>21834.46860908992</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -38794,11 +37958,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -38831,11 +37991,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -38868,11 +38024,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -38905,11 +38057,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -38942,11 +38090,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -38979,11 +38123,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -39016,11 +38156,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -39053,11 +38189,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -39090,11 +38222,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -39127,11 +38255,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -39164,11 +38288,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -39201,11 +38321,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -39238,11 +38354,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -39275,11 +38387,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -39312,11 +38420,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -39349,11 +38453,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -39386,11 +38486,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -39423,11 +38519,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -39460,11 +38552,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -39497,11 +38585,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -39534,11 +38618,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -39571,11 +38651,7 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -39608,11 +38684,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -39645,11 +38717,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -39682,11 +38750,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -39719,11 +38783,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -39756,11 +38816,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -39793,11 +38849,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -39826,16 +38878,14 @@
         <v>72664.98608142986</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr"/>
+      <c r="L1101" t="n">
+        <v>1</v>
+      </c>
       <c r="M1101" t="inlineStr"/>
     </row>
     <row r="1102">
@@ -39894,7 +38944,7 @@
         <v>76700.85442402987</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -39927,7 +38977,7 @@
         <v>85450.50052402986</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -39960,7 +39010,7 @@
         <v>76409.40527577986</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -39993,7 +39043,7 @@
         <v>76601.75497577987</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -40026,7 +39076,7 @@
         <v>123082.4041124899</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -40125,7 +39175,7 @@
         <v>117117.8685491999</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -40224,7 +39274,7 @@
         <v>107571.3662707199</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -40257,7 +39307,7 @@
         <v>100690.5012707199</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -40323,7 +39373,7 @@
         <v>73792.18726502986</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -40356,7 +39406,7 @@
         <v>77700.40006502985</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -40389,7 +39439,7 @@
         <v>69703.14586502986</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -40422,7 +39472,7 @@
         <v>73534.63616502986</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -40433,6 +39483,6 @@
       <c r="M1119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest EOS.xlsx
+++ b/BackTest/2020-01-13 BackTest EOS.xlsx
@@ -517,7 +517,7 @@
         <v>42760.08439821</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>41396.52319820999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>41125.27719820999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>41125.27719820999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>51615.50119821</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>49866.71499820999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>49866.71499820999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>32943.63369820999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>32103.05299820999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>30429.04819820999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>31311.70129820999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>31311.70129820999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>31640.74589820999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>39685.61599820999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>50929.32529820999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>53260.34639820999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>49256.58999820999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>49256.58999820999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>43664.36989821</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>41921.7327702</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>44935.43215795</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>48099.06035794999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>48212.69635794999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>42605.20945795</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>42354.25415795</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>42397.07725795</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>42679.12085794999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>57760.14615795</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>61840.32255794999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>60982.52565794999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>60982.52565794999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>60616.54129561999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>59741.53049562</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>63021.31899562</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>63021.31899562</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>62679.63939562</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>62277.89019562</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>62277.89019562</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>68755.56689749</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>66827.10219749001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>68217.28789749001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>67154.23989749001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>68761.07339749001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>82960.74169749001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>82210.50529749002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>81574.96739749002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>80984.29580690002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>87807.87470690001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>86640.85140690001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>87483.80340690001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>82168.04130690001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>82211.45430690001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>76939.6105069</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>76613.0186069</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>73801.8966069</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>74485.17400690001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>74371.5740069</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>74238.46290690001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>81105.5299069</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>73123.28025401002</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>65167.00865401002</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>65150.94865401003</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>65199.79255401003</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>65449.79255401003</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>65449.79255401003</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>66263.44675401003</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>66263.44675401003</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>72825.88495401003</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>72179.59845401003</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>72341.88935401004</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>72499.39315401005</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>71130.06815401005</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>71066.06915401005</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>70993.38015401005</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>80851.59175401005</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>80857.59175401005</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>69181.22965401004</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>69164.78135401003</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>70217.75655401003</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>70227.21935401003</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -14311,11 +14311,17 @@
         <v>-93758.64737294998</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>3389</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14350,17 @@
         <v>-86053.27107294998</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>3389</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14389,17 @@
         <v>-84779.74637294999</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>3399</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14432,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14469,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14506,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14539,17 @@
         <v>-87034.05827294997</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>3407</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14578,17 @@
         <v>-95947.83957294998</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>3404</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +14617,17 @@
         <v>-97132.84597294997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>3401</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14656,17 @@
         <v>-97367.62637294998</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>3400</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14695,17 @@
         <v>-97367.62637294998</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>3399</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14734,17 @@
         <v>-95774.67897294997</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>3399</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14773,17 @@
         <v>-96276.03047294998</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3402</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14812,17 @@
         <v>-96262.25907294998</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>3399</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14851,17 @@
         <v>-96681.04137294999</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>3400</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +14890,17 @@
         <v>-97687.51137294999</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>3399</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14929,17 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>3396</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14968,17 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3393</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15007,17 @@
         <v>-98292.19847294998</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>3393</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15046,17 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3393</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15085,17 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>3401</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15124,17 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3401</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15163,17 @@
         <v>-93160.66057294999</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>3401</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15202,17 @@
         <v>-106965.22757295</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>3401</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15241,17 @@
         <v>-106940.77027295</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3397</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15280,17 @@
         <v>-110333.35637295</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>3399</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15319,17 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>3394</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15358,17 @@
         <v>-124722.84347295</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>3390</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15243,7 +15405,7 @@
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L450" t="n">
@@ -15352,9 +15514,11 @@
         <v>-122032.36197295</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>3403</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15389,9 +15553,11 @@
         <v>-112555.66567295</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>3403</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15426,9 +15592,11 @@
         <v>-109425.85047295</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3405</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15463,9 +15631,11 @@
         <v>-110895.09819032</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>3410</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15500,9 +15670,11 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>3408</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -15537,9 +15709,11 @@
         <v>-111995.09569032</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>3407</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15574,9 +15748,11 @@
         <v>-113141.55769032</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>3407</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15611,9 +15787,11 @@
         <v>-108152.12331527</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>3403</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -15648,9 +15826,11 @@
         <v>-102257.39866579</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>3404</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -15685,9 +15865,11 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>3405</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -15722,9 +15904,11 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>3404</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -15759,9 +15943,11 @@
         <v>-102356.81166579</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>3404</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -15796,9 +15982,11 @@
         <v>-102565.18066579</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>3404</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -15833,9 +16021,11 @@
         <v>-112270.49876579</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>3401</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -15870,9 +16060,11 @@
         <v>-112270.49876579</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>3399</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -15907,9 +16099,11 @@
         <v>-112137.02636579</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>3399</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -15944,9 +16138,11 @@
         <v>-111984.96196579</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>3400</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -15981,9 +16177,11 @@
         <v>-110276.59436579</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>3402</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16018,9 +16216,11 @@
         <v>-110292.34436579</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>3403</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16211,9 +16411,11 @@
         <v>-89233.47806579</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>3404</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16326,9 +16528,11 @@
         <v>-91046.36756579</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>3402</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -17609,9 +17813,11 @@
         <v>-101908.85006579</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>3416</v>
+      </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17646,9 +17852,11 @@
         <v>-101908.85006579</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>3413</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17683,9 +17891,11 @@
         <v>-99211.43756578999</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>3413</v>
+      </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -17720,9 +17930,11 @@
         <v>-97422.44536579</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>3417</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17757,9 +17969,11 @@
         <v>-96906.76196579001</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>3418</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17794,9 +18008,11 @@
         <v>-96906.76196579001</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>3420</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17831,9 +18047,11 @@
         <v>-95671.54196579001</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>3420</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17868,9 +18086,11 @@
         <v>-96314.56336579</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>3433</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17905,9 +18125,11 @@
         <v>-94151.49076579</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>3431</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17942,9 +18164,11 @@
         <v>-93866.78686579001</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>3432</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -17979,9 +18203,11 @@
         <v>-99260.14476579001</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>3433</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18016,9 +18242,11 @@
         <v>-99234.93706579001</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>3430</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18053,9 +18281,11 @@
         <v>-99492.68916579001</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>3432</v>
+      </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18090,9 +18320,11 @@
         <v>-97825.17756579001</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>3424</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18127,9 +18359,11 @@
         <v>-99137.48406579002</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>3425</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18164,9 +18398,11 @@
         <v>-99137.48406579002</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>3424</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18201,9 +18437,11 @@
         <v>-98835.51326579002</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>3424</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18238,9 +18476,11 @@
         <v>-95888.49956579003</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>3425</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18275,9 +18515,11 @@
         <v>-95888.49956579003</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>3430</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18312,9 +18554,11 @@
         <v>-96035.35376579003</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>3430</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18349,9 +18593,11 @@
         <v>-97146.07326579004</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>3428</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18386,9 +18632,11 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>3425</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18423,9 +18671,11 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>3418</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18460,9 +18710,11 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>3418</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18497,9 +18749,11 @@
         <v>-98555.89656579004</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>3418</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18534,9 +18788,11 @@
         <v>-99299.42836579004</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>3418</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18727,9 +18983,11 @@
         <v>-88719.15096579003</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>3431</v>
+      </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -18764,9 +19022,11 @@
         <v>-83213.21556579003</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>3429</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -19282,11 +19542,9 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19321,11 +19579,9 @@
         <v>-86210.13031442004</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19360,11 +19616,9 @@
         <v>-87212.56961442003</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19399,11 +19653,9 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19438,11 +19690,9 @@
         <v>-87364.55881442003</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>3411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19477,11 +19727,9 @@
         <v>-87798.70531442003</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>3411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19516,11 +19764,9 @@
         <v>-87774.63761442003</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>3409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19555,11 +19801,9 @@
         <v>-87944.34761442004</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19594,11 +19838,9 @@
         <v>-88180.27541442004</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>3412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -19633,11 +19875,9 @@
         <v>-87832.19111442004</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>3411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -19672,11 +19912,9 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19711,11 +19949,9 @@
         <v>-87481.82881442005</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -19750,11 +19986,9 @@
         <v>-87602.75881442004</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -19789,11 +20023,9 @@
         <v>-84582.92011442005</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -19828,11 +20060,9 @@
         <v>-84582.92011442005</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -19904,11 +20134,9 @@
         <v>-76412.40831442006</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -21312,11 +21540,9 @@
         <v>-93832.35811121005</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21388,11 +21614,9 @@
         <v>-94701.25171121005</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21427,11 +21651,9 @@
         <v>-95103.68381121005</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21466,11 +21688,9 @@
         <v>-94684.83931121005</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21505,11 +21725,9 @@
         <v>-94707.14861121004</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21544,11 +21762,9 @@
         <v>-96426.86021121003</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>3412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -21583,11 +21799,9 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>3409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21622,11 +21836,9 @@
         <v>-95075.46261121004</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>3413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -21661,11 +21873,9 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>3413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21700,11 +21910,9 @@
         <v>-89959.14411121004</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21739,11 +21947,9 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -21778,11 +21984,9 @@
         <v>-89960.14411121004</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -21817,11 +22021,9 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -21856,11 +22058,9 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -21895,11 +22095,9 @@
         <v>-89798.07751121004</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21934,11 +22132,9 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21973,11 +22169,9 @@
         <v>-89351.38291121004</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -22012,11 +22206,9 @@
         <v>-89310.38291121004</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -22051,11 +22243,9 @@
         <v>-89119.37931121004</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22090,11 +22280,9 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22129,11 +22317,9 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -22168,11 +22354,9 @@
         <v>-89217.01041121004</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22207,11 +22391,9 @@
         <v>-88967.01041121004</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -22246,11 +22428,9 @@
         <v>-88266.59491121004</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>3421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22285,11 +22465,9 @@
         <v>-91891.93371121003</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -22324,11 +22502,9 @@
         <v>-91325.82961121004</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -22363,11 +22539,9 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -22402,11 +22576,9 @@
         <v>-91326.73961121004</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -22441,11 +22613,9 @@
         <v>-91072.01771121004</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -22480,11 +22650,9 @@
         <v>-91302.06771121004</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>3426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -22519,11 +22687,9 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>3422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -22558,11 +22724,9 @@
         <v>-91010.64351121004</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22597,11 +22761,9 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22636,11 +22798,9 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -22675,11 +22835,9 @@
         <v>-91771.41651121005</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22714,11 +22872,9 @@
         <v>-91924.98431121005</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22753,11 +22909,9 @@
         <v>-89905.06711121005</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22792,11 +22946,9 @@
         <v>-90191.34501121005</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -22831,11 +22983,9 @@
         <v>-89785.92901121006</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22870,11 +23020,9 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>3416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22909,11 +23057,9 @@
         <v>-89750.26101121005</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -22948,11 +23094,9 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22987,11 +23131,9 @@
         <v>-89369.15221121005</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>3421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -23026,11 +23168,9 @@
         <v>-89591.58641121005</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>3421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -23065,11 +23205,9 @@
         <v>-90091.43641121006</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -23104,11 +23242,9 @@
         <v>-90214.42491121007</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>3414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -23143,11 +23279,9 @@
         <v>-90206.51501121007</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>3411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -23182,11 +23316,9 @@
         <v>-90208.51501121007</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>3413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -23221,11 +23353,9 @@
         <v>-90194.91751121006</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>3410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -23260,11 +23390,9 @@
         <v>-90192.64076548006</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -23299,11 +23427,9 @@
         <v>-90449.52286548006</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -23338,11 +23464,9 @@
         <v>-90397.82376548006</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -23377,11 +23501,9 @@
         <v>-90164.27886548007</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>3421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23416,11 +23538,9 @@
         <v>-93273.82616548007</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>3422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -23455,11 +23575,9 @@
         <v>-92926.83426548008</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -23494,11 +23612,9 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>3422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -23533,11 +23649,9 @@
         <v>-93009.84326548009</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -23572,11 +23686,9 @@
         <v>-89928.27266548008</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -23611,11 +23723,9 @@
         <v>-89927.71266548008</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -25093,16 +25203,18 @@
         <v>-108825.2999690101</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L710" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L710" t="n">
+        <v>1</v>
+      </c>
       <c r="M710" t="inlineStr"/>
     </row>
     <row r="711">
@@ -25128,11 +25240,15 @@
         <v>-107978.4704690101</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25161,11 +25277,15 @@
         <v>-103201.2390690101</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25194,11 +25314,15 @@
         <v>-103723.6797690101</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25227,11 +25351,15 @@
         <v>-107089.9009690101</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25260,11 +25388,15 @@
         <v>-108217.4334690101</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25293,11 +25425,15 @@
         <v>-109665.8533965201</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25326,11 +25462,15 @@
         <v>-108359.9875965201</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25359,11 +25499,15 @@
         <v>-119090.2479965201</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25392,11 +25536,15 @@
         <v>-124734.8837023201</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25425,11 +25573,15 @@
         <v>-126195.5023023201</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25462,7 +25614,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25495,7 +25651,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25528,7 +25688,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25561,7 +25725,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25594,7 +25762,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25627,7 +25799,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25660,7 +25836,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25693,7 +25873,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25726,7 +25910,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25759,7 +25947,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25788,15 +25980,13 @@
         <v>-128337.1180479101</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>3443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L731" t="n">
@@ -25827,11 +26017,9 @@
         <v>-128462.6664479101</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>3441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25866,11 +26054,9 @@
         <v>-128421.0873479101</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>3438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -25905,11 +26091,9 @@
         <v>-128254.7717479101</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25944,11 +26128,9 @@
         <v>-128388.8077479101</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>3450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25983,11 +26165,9 @@
         <v>-128262.9103479101</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>3444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -26022,11 +26202,9 @@
         <v>-128310.2870479101</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>3449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -26061,11 +26239,9 @@
         <v>-125957.4202479101</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -26100,11 +26276,9 @@
         <v>-125902.5628479101</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>3450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -26139,11 +26313,9 @@
         <v>-125034.9966479101</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>3455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -26178,11 +26350,9 @@
         <v>-125034.9966479101</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>3460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -26439,16 +26609,18 @@
         <v>-118267.7258812701</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L748" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
       <c r="M748" t="inlineStr"/>
     </row>
     <row r="749">
@@ -26474,11 +26646,15 @@
         <v>-117685.4324812701</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26507,11 +26683,15 @@
         <v>-117878.9240812701</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26540,11 +26720,15 @@
         <v>-117909.7897812701</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26573,11 +26757,15 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26606,11 +26794,15 @@
         <v>-114783.5174812701</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26639,11 +26831,15 @@
         <v>-114821.4659812701</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26672,11 +26868,15 @@
         <v>-111267.9056812701</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26709,7 +26909,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26742,7 +26946,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26775,7 +26983,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26804,15 +27016,13 @@
         <v>-113249.9983812701</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>3457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L759" t="n">
@@ -26954,11 +27164,9 @@
         <v>-116973.9439812701</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>3466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -26993,11 +27201,9 @@
         <v>-114022.9954812701</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>3469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -27032,11 +27238,9 @@
         <v>-117926.7266812701</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>3470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -27071,11 +27275,9 @@
         <v>-113307.0988812701</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>3468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -27110,11 +27312,9 @@
         <v>-112485.0073812701</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>3473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -31404,11 +31604,9 @@
         <v>-81316.7432616201</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>3436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -31443,11 +31641,9 @@
         <v>-81316.7432616201</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>3436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -31482,11 +31678,9 @@
         <v>-84443.2197616201</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>3436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -31521,11 +31715,9 @@
         <v>-84563.2197616201</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>3435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -31560,11 +31752,9 @@
         <v>-85145.88316162011</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>3433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -31599,11 +31789,9 @@
         <v>-85730.6361616201</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>3432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -31638,11 +31826,9 @@
         <v>-87356.0775616201</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>3428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -31677,11 +31863,9 @@
         <v>-86317.5886616201</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -31716,11 +31900,9 @@
         <v>-86701.21556162011</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>3428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -31755,11 +31937,9 @@
         <v>-87668.54506162011</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>3425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -31794,11 +31974,9 @@
         <v>-88669.07376162011</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -31833,11 +32011,9 @@
         <v>-92564.2485616201</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -31872,11 +32048,9 @@
         <v>-73954.7237616201</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -31911,11 +32085,9 @@
         <v>-76796.4283616201</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -31950,11 +32122,9 @@
         <v>-76796.4283616201</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -31989,11 +32159,9 @@
         <v>-75305.4449616201</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>3417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -32028,11 +32196,9 @@
         <v>-75640.0753616201</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -32067,11 +32233,9 @@
         <v>-75321.2203616201</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>3418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -32106,11 +32270,9 @@
         <v>-75321.2203616201</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -32145,11 +32307,9 @@
         <v>-75271.2203616201</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>3420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -32184,11 +32344,9 @@
         <v>-73897.6012616201</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>3426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -32223,11 +32381,9 @@
         <v>-73883.97516162011</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>3427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -32262,11 +32418,9 @@
         <v>-73811.32576162012</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>3428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -33596,16 +33750,18 @@
         <v>-60261.23784610009</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L941" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L941" t="n">
+        <v>1</v>
+      </c>
       <c r="M941" t="inlineStr"/>
     </row>
     <row r="942">
@@ -33635,7 +33791,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -33664,11 +33824,15 @@
         <v>-61895.49504610009</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -33697,11 +33861,15 @@
         <v>-61416.04814610009</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33730,11 +33898,15 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33763,11 +33935,15 @@
         <v>-61482.80654610009</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33796,11 +33972,15 @@
         <v>-61447.44254610009</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33829,11 +34009,15 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33862,11 +34046,15 @@
         <v>-61474.66254610009</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33895,11 +34083,15 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33928,11 +34120,15 @@
         <v>-62731.19044610009</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33965,7 +34161,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33998,7 +34198,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34031,7 +34235,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34064,7 +34272,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34097,7 +34309,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34130,7 +34346,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34163,7 +34383,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34196,7 +34420,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -34229,7 +34457,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -34262,7 +34494,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -34295,7 +34531,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -34328,7 +34568,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -34361,7 +34605,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -34394,7 +34642,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -34427,7 +34679,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -34460,7 +34716,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -34493,7 +34753,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -34526,7 +34790,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -34559,7 +34827,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -34592,7 +34864,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -34625,7 +34901,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -34658,7 +34938,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34691,7 +34975,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34724,7 +35012,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34757,7 +35049,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34790,7 +35086,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34823,7 +35123,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34856,7 +35160,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34889,7 +35197,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34922,7 +35234,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34955,7 +35271,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34988,7 +35308,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35021,7 +35345,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35054,7 +35382,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35087,7 +35419,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -35120,7 +35456,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -35153,7 +35493,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -35186,7 +35530,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -35219,7 +35567,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -35252,7 +35604,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -35285,7 +35641,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -35318,7 +35678,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -35351,7 +35715,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -35384,7 +35752,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35417,7 +35789,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -35450,7 +35826,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -35483,7 +35863,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -35516,7 +35900,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35549,7 +35937,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35582,7 +35974,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35615,7 +36011,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35648,7 +36048,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35681,7 +36085,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35714,7 +36122,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35747,7 +36159,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35780,7 +36196,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35813,7 +36233,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35846,7 +36270,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35879,7 +36307,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35912,7 +36344,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35945,7 +36381,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35978,7 +36418,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -36011,7 +36455,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -36044,7 +36492,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -36077,7 +36529,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -36110,7 +36566,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -36143,7 +36603,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -36176,7 +36640,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -36209,7 +36677,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -36242,7 +36714,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -36275,7 +36751,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -36308,7 +36788,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -36341,7 +36825,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -36374,7 +36862,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -36407,7 +36899,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -36440,7 +36936,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -36473,7 +36973,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -36506,7 +37010,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -36539,7 +37047,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -36572,7 +37084,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -36605,7 +37121,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36638,7 +37158,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36671,7 +37195,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -36704,7 +37232,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36737,7 +37269,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36770,7 +37306,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -36803,7 +37343,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36836,7 +37380,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36869,7 +37417,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -36902,7 +37454,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36935,7 +37491,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36968,7 +37528,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -37001,7 +37565,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -37034,7 +37602,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -37067,7 +37639,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -37100,7 +37676,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -37133,7 +37713,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -37166,7 +37750,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -37199,7 +37787,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -37232,7 +37824,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -37265,7 +37861,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -37298,7 +37898,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -37331,7 +37935,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -37364,7 +37972,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -37397,7 +38009,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -37430,7 +38046,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -37463,7 +38083,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -37496,7 +38120,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -37525,11 +38153,15 @@
         <v>-19932.05479091008</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -37558,11 +38190,15 @@
         <v>-19590.14779091008</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -37591,11 +38227,15 @@
         <v>-19590.14779091008</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -37624,11 +38264,15 @@
         <v>-19591.15279091008</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -37657,11 +38301,15 @@
         <v>-18154.04359091008</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -37690,11 +38338,15 @@
         <v>-18154.04359091008</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -37723,11 +38375,15 @@
         <v>-15071.59019091008</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -37756,11 +38412,15 @@
         <v>-16497.26749091008</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -37789,11 +38449,15 @@
         <v>-13439.16239091008</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -37822,11 +38486,15 @@
         <v>-7949.524690910078</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -37855,11 +38523,15 @@
         <v>31421.12620908992</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -37888,11 +38560,15 @@
         <v>24130.79270908992</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -37921,11 +38597,15 @@
         <v>21834.46860908992</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -37958,7 +38638,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37991,7 +38675,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -38024,7 +38712,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -38057,7 +38749,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -38090,7 +38786,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -38123,7 +38823,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -38156,7 +38860,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -38189,7 +38897,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -38222,7 +38934,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -38255,7 +38971,11 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -38288,7 +39008,11 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -38321,7 +39045,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -38354,7 +39082,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -38387,7 +39119,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -38420,7 +39156,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -38453,7 +39193,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -38486,7 +39230,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -38515,14 +39263,16 @@
         <v>76582.80891885988</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
-      <c r="L1090" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1090" t="inlineStr"/>
       <c r="M1090" t="inlineStr"/>
     </row>
     <row r="1091">
@@ -38581,7 +39331,7 @@
         <v>76787.89822402988</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38614,7 +39364,7 @@
         <v>83546.85472402988</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38647,7 +39397,7 @@
         <v>86434.51942402987</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38680,7 +39430,7 @@
         <v>85650.92212402988</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38713,7 +39463,7 @@
         <v>85850.93948142987</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38779,7 +39529,7 @@
         <v>75823.00378142987</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38812,7 +39562,7 @@
         <v>70532.84218142986</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38845,7 +39595,7 @@
         <v>72664.98608142986</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38878,7 +39628,7 @@
         <v>72664.98608142986</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38911,7 +39661,7 @@
         <v>86694.90212402986</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38944,7 +39694,7 @@
         <v>76700.85442402987</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38977,7 +39727,7 @@
         <v>85450.50052402986</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -39010,7 +39760,7 @@
         <v>76409.40527577986</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -39043,7 +39793,7 @@
         <v>76601.75497577987</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -39076,7 +39826,7 @@
         <v>123082.4041124899</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -39109,7 +39859,7 @@
         <v>135700.0047124899</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -39142,7 +39892,7 @@
         <v>128635.3625491999</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -39175,7 +39925,7 @@
         <v>117117.8685491999</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -39208,7 +39958,7 @@
         <v>111026.2765491999</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -39241,7 +39991,7 @@
         <v>102023.1480707199</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -39274,7 +40024,7 @@
         <v>107571.3662707199</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -39307,7 +40057,7 @@
         <v>100690.5012707199</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -39340,7 +40090,7 @@
         <v>76760.52026502986</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -39373,7 +40123,7 @@
         <v>73792.18726502986</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39406,7 +40156,7 @@
         <v>77700.40006502985</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39439,7 +40189,7 @@
         <v>69703.14586502986</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -39472,7 +40222,7 @@
         <v>73534.63616502986</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
